--- a/SchedulingData/dynamic12/pso/scheduling2_1.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,230 +462,230 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>226.52</v>
+        <v>218.46</v>
       </c>
       <c r="D2" t="n">
-        <v>273.72</v>
+        <v>291.04</v>
       </c>
       <c r="E2" t="n">
-        <v>16.648</v>
+        <v>12.516</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>261.3</v>
+        <v>249.14</v>
       </c>
       <c r="D3" t="n">
-        <v>302.9</v>
+        <v>306.94</v>
       </c>
       <c r="E3" t="n">
-        <v>12.36</v>
+        <v>13.456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>249.14</v>
+        <v>306.94</v>
       </c>
       <c r="D4" t="n">
-        <v>305.16</v>
+        <v>353.94</v>
       </c>
       <c r="E4" t="n">
-        <v>9.784000000000001</v>
+        <v>10.376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>273.72</v>
+        <v>253.9</v>
       </c>
       <c r="D5" t="n">
-        <v>335.48</v>
+        <v>313.9</v>
       </c>
       <c r="E5" t="n">
-        <v>13.112</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>209.3</v>
+        <v>253.84</v>
       </c>
       <c r="D6" t="n">
-        <v>267.92</v>
+        <v>318.84</v>
       </c>
       <c r="E6" t="n">
-        <v>14.348</v>
+        <v>12.696</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>335.48</v>
+        <v>291.04</v>
       </c>
       <c r="D7" t="n">
-        <v>393.88</v>
+        <v>347.54</v>
       </c>
       <c r="E7" t="n">
-        <v>9.391999999999999</v>
+        <v>9.956</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>302.9</v>
+        <v>225.86</v>
       </c>
       <c r="D8" t="n">
-        <v>356.62</v>
+        <v>266.86</v>
       </c>
       <c r="E8" t="n">
-        <v>9.587999999999999</v>
+        <v>16.444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>305.16</v>
+        <v>229.74</v>
       </c>
       <c r="D9" t="n">
-        <v>343.06</v>
+        <v>290.24</v>
       </c>
       <c r="E9" t="n">
-        <v>7.624</v>
+        <v>13.076</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>393.88</v>
+        <v>318.84</v>
       </c>
       <c r="D10" t="n">
-        <v>453.44</v>
+        <v>393.74</v>
       </c>
       <c r="E10" t="n">
-        <v>7.016</v>
+        <v>9.336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>267.92</v>
+        <v>290.24</v>
       </c>
       <c r="D11" t="n">
-        <v>310.08</v>
+        <v>341.8</v>
       </c>
       <c r="E11" t="n">
-        <v>11.752</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>233.86</v>
+        <v>353.94</v>
       </c>
       <c r="D12" t="n">
-        <v>315</v>
+        <v>388.56</v>
       </c>
       <c r="E12" t="n">
-        <v>11.16</v>
+        <v>8.044</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>219.32</v>
+        <v>393.74</v>
       </c>
       <c r="D13" t="n">
-        <v>291.62</v>
+        <v>438.08</v>
       </c>
       <c r="E13" t="n">
-        <v>12.628</v>
+        <v>6.032</v>
       </c>
     </row>
     <row r="14">
@@ -694,93 +694,93 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>343.06</v>
+        <v>313.9</v>
       </c>
       <c r="D14" t="n">
-        <v>413.16</v>
+        <v>359.92</v>
       </c>
       <c r="E14" t="n">
-        <v>5.204</v>
+        <v>5.928</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>291.62</v>
+        <v>266.86</v>
       </c>
       <c r="D15" t="n">
-        <v>365.88</v>
+        <v>306.92</v>
       </c>
       <c r="E15" t="n">
-        <v>9.811999999999999</v>
+        <v>14.068</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>315</v>
+        <v>306.92</v>
       </c>
       <c r="D16" t="n">
-        <v>374.5</v>
+        <v>351.28</v>
       </c>
       <c r="E16" t="n">
-        <v>7.32</v>
+        <v>11.252</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>374.5</v>
+        <v>341.8</v>
       </c>
       <c r="D17" t="n">
-        <v>431.04</v>
+        <v>399</v>
       </c>
       <c r="E17" t="n">
-        <v>4.296</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>431.04</v>
+        <v>359.92</v>
       </c>
       <c r="D18" t="n">
-        <v>485.36</v>
+        <v>421.82</v>
       </c>
       <c r="E18" t="n">
-        <v>1.964</v>
+        <v>2.848</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>485.36</v>
+        <v>347.54</v>
       </c>
       <c r="D19" t="n">
-        <v>558.23</v>
+        <v>408.68</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>6.932</v>
       </c>
     </row>
     <row r="20">
@@ -808,36 +808,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>310.08</v>
+        <v>388.56</v>
       </c>
       <c r="D20" t="n">
-        <v>382.98</v>
+        <v>443.08</v>
       </c>
       <c r="E20" t="n">
-        <v>8.092000000000001</v>
+        <v>5.712</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>356.62</v>
+        <v>351.28</v>
       </c>
       <c r="D21" t="n">
-        <v>419.22</v>
+        <v>410.78</v>
       </c>
       <c r="E21" t="n">
-        <v>7.428</v>
+        <v>7.412</v>
       </c>
     </row>
     <row r="22">
@@ -846,55 +846,55 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>558.23</v>
+        <v>408.68</v>
       </c>
       <c r="D22" t="n">
-        <v>623.15</v>
+        <v>440.6</v>
       </c>
       <c r="E22" t="n">
-        <v>27.668</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>413.16</v>
+        <v>399</v>
       </c>
       <c r="D23" t="n">
-        <v>456.7</v>
+        <v>441.9</v>
       </c>
       <c r="E23" t="n">
-        <v>1.98</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>456.7</v>
+        <v>410.78</v>
       </c>
       <c r="D24" t="n">
-        <v>554.24</v>
+        <v>463.38</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>4.292</v>
       </c>
     </row>
     <row r="25">
@@ -903,17 +903,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>382.98</v>
+        <v>443.08</v>
       </c>
       <c r="D25" t="n">
-        <v>446.92</v>
+        <v>497.14</v>
       </c>
       <c r="E25" t="n">
-        <v>4.788</v>
+        <v>2.436</v>
       </c>
     </row>
     <row r="26">
@@ -922,55 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>419.22</v>
+        <v>438.08</v>
       </c>
       <c r="D26" t="n">
-        <v>469.02</v>
+        <v>480.1</v>
       </c>
       <c r="E26" t="n">
-        <v>4.068</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>2</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>pond51</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>554.24</v>
-      </c>
-      <c r="D27" t="n">
-        <v>626.54</v>
-      </c>
-      <c r="E27" t="n">
-        <v>26.92</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>pond7</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>365.88</v>
-      </c>
-      <c r="D28" t="n">
-        <v>417.78</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6.732</v>
+        <v>2.96</v>
       </c>
     </row>
   </sheetData>
